--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\liyunlong\robust-residual-network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0A0EBB-0F77-4FD1-A16B-0F8143F02517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED8308D-589F-4257-B3CB-A194BB9A12B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="3530" windowWidth="17960" windowHeight="13490" xr2:uid="{2FAE3A01-0C8F-4B1A-8FBD-EC9BE61984E5}"/>
+    <workbookView xWindow="1680" yWindow="2110" windowWidth="35300" windowHeight="18120" xr2:uid="{2FAE3A01-0C8F-4B1A-8FBD-EC9BE61984E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>常规精度(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,14 @@
   </si>
   <si>
     <t>WRN-A3(100)(TR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRN-A4(100)(TR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobustResNet-A1(100)(TR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6718BFFF-2EDD-440A-896A-648A14BEC837}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -571,6 +579,20 @@
         <v>36.18</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1">
+        <v>51.14</v>
+      </c>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
@@ -639,6 +661,20 @@
       </c>
       <c r="D9" s="1">
         <v>46.57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>86.48</v>
+      </c>
+      <c r="C10" s="1">
+        <v>56.45</v>
+      </c>
+      <c r="D10" s="1">
+        <v>53.2</v>
       </c>
     </row>
   </sheetData>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\liyunlong\robust-residual-network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED8308D-589F-4257-B3CB-A194BB9A12B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B6CDE5-2827-41F8-99F1-DDDFBF5841E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2110" windowWidth="35300" windowHeight="18120" xr2:uid="{2FAE3A01-0C8F-4B1A-8FBD-EC9BE61984E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{2FAE3A01-0C8F-4B1A-8FBD-EC9BE61984E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>常规精度(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +134,62 @@
   </si>
   <si>
     <t>RobustResNet-A1(100)(TR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数量(FLOPS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39819M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5080M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10842M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20225M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40397M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1270M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss(100)(TR)(Head8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbamResNet-50-TradesLoss(100)(TR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道注意力和空间注意力中的池化层使得计算量大幅度减少了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +263,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,21 +583,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6718BFFF-2EDD-440A-896A-648A14BEC837}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,8 +612,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -564,22 +632,11 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>70.39</v>
-      </c>
-      <c r="C3" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>36.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -592,8 +649,11 @@
       <c r="D4" s="1">
         <v>51.14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -606,8 +666,11 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -620,8 +683,11 @@
       <c r="D6" s="1">
         <v>47.48</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -634,8 +700,11 @@
       <c r="D7" s="1">
         <v>49.64</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -648,8 +717,11 @@
       <c r="D8" s="1">
         <v>50.82</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -662,8 +734,11 @@
       <c r="D9" s="1">
         <v>46.57</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -675,6 +750,66 @@
       </c>
       <c r="D10" s="1">
         <v>53.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43.62</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41.18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>70.39</v>
+      </c>
+      <c r="C12" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>36.18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.70850000000000002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40.85</v>
+      </c>
+      <c r="D13" s="1">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\liyunlong\robust-residual-network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B6CDE5-2827-41F8-99F1-DDDFBF5841E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AE2A6-A847-4BD6-9833-590E89A21F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{2FAE3A01-0C8F-4B1A-8FBD-EC9BE61984E5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>常规精度(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AttentionResNet-50-TradesLoss(100)(TR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>参数量(FLOPS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +194,110 @@
   </si>
   <si>
     <t>通道注意力和空间注意力中的池化层使得计算量大幅度减少了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-GELU(188)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-GELU(61)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1276M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-SE(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-GELU(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-50-ATLoss-second(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apex_amp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-50-TradesLoss-second(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard AT就是单纯使用PGD攻击生成对抗样本，然后送入神经网络训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除apex混合精度的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色表示在linux-3090上跑的实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-second(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用了SGD优化器，陷入了局部最优，优化的不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-third(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有提升什么，cbam和se都是对特征图的修改，两者的功能是不是重复了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-cbam-second(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:http://giantpandacv.com/academic/%E7%AE%97%E6%B3%95%E7%A7%91%E6%99%AE/%E6%89%8B%E5%B7%A5%E8%B0%83%E5%8F%82Tricks/%E3%80%90CNN%E8%B0%83%E5%8F%82%E3%80%91%E5%9B%BE%E5%83%8F%E5%88%86%E7%B1%BB%E7%AE%97%E6%B3%95%E4%BC%98%E5%8C%96%E6%8A%80%E5%B7%A7/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-D-second(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有SE导致性能下降了1%，还挺多的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-cbam-D(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-SE-third[SE-jump](100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-ATLoss-Mish-SE[SE-jump](100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-SE-cbam[SE-jump](100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-SE-D[SE-jump](100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,16 +337,65 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -246,16 +403,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,10 +452,41 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="计算" xfId="4" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,23 +798,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6718BFFF-2EDD-440A-896A-648A14BEC837}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="59" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" customWidth="1"/>
+    <col min="7" max="7" width="64.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -613,13 +829,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -633,134 +852,178 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1">
+        <v>51.14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>87.2</v>
+        <v>90.44</v>
       </c>
       <c r="C4" s="1">
-        <v>59</v>
+        <v>28.64</v>
       </c>
       <c r="D4" s="1">
-        <v>51.14</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80.22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>52.53</v>
+      </c>
+      <c r="D5" s="1">
+        <v>47.48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>84.63</v>
+      </c>
+      <c r="C6" s="1">
+        <v>53.75</v>
+      </c>
+      <c r="D6" s="1">
+        <v>49.64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>85.04</v>
+      </c>
+      <c r="C7" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50.82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>81.81</v>
+      </c>
+      <c r="C8" s="1">
+        <v>51.11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>46.57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>86.48</v>
+      </c>
+      <c r="C9" s="1">
+        <v>56.45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>70.39</v>
+      </c>
+      <c r="C10" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>36.18</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>90.44</v>
-      </c>
-      <c r="C5" s="1">
-        <v>28.64</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>80.22</v>
-      </c>
-      <c r="C6" s="1">
-        <v>52.53</v>
-      </c>
-      <c r="D6" s="1">
-        <v>47.48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>84.63</v>
-      </c>
-      <c r="C7" s="1">
-        <v>53.75</v>
-      </c>
-      <c r="D7" s="1">
-        <v>49.64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>85.04</v>
-      </c>
-      <c r="C8" s="1">
-        <v>54.7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>50.82</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>81.81</v>
-      </c>
-      <c r="C9" s="1">
-        <v>51.11</v>
-      </c>
-      <c r="D9" s="1">
-        <v>46.57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>86.48</v>
-      </c>
-      <c r="C10" s="1">
-        <v>56.45</v>
-      </c>
-      <c r="D10" s="1">
-        <v>53.2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>77.430000000000007</v>
@@ -772,49 +1035,362 @@
         <v>41.18</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
-        <v>70.39</v>
-      </c>
-      <c r="C12" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>36.18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4">
+        <v>77.7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>46.27</v>
+      </c>
+      <c r="D12" s="4">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>42.08</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4">
+        <v>77.17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45.79</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>46.11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41.53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3">
         <v>0.70850000000000002</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C16" s="1">
         <v>40.85</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D16" s="1">
         <v>35.770000000000003</v>
       </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.7853</v>
+      </c>
+      <c r="C17" s="1">
+        <v>48.16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>42.89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1">
+        <v>80.16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>49.22</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44.41</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>49.24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1">
+        <v>64.69</v>
+      </c>
+      <c r="C22" s="1">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1">
+        <v>48.94</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44.59</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="C24" s="1">
+        <v>47.98</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42.21</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1">
+        <v>79.55</v>
+      </c>
+      <c r="C25" s="1">
+        <v>48.33</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43.37</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1">
+        <v>80.38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>49.51</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44.91</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1">
+        <v>80.61</v>
+      </c>
+      <c r="C27" s="1">
+        <v>49.22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43.99</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1">
+        <v>80.66</v>
+      </c>
+      <c r="C28" s="1">
+        <v>47.75</v>
+      </c>
+      <c r="D28" s="1">
+        <v>41.87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>82.73</v>
+      </c>
+      <c r="C33" s="9">
+        <v>47.92</v>
+      </c>
+      <c r="D33" s="9">
+        <v>38.94</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="C34" s="9">
+        <v>44.05</v>
+      </c>
+      <c r="D34" s="9">
+        <v>39.58</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="9">
+        <v>75.2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>44.97</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G26" r:id="rId1" display="http://giantpandacv.com/academic/%E7%AE%97%E6%B3%95%E7%A7%91%E6%99%AE/%E6%89%8B%E5%B7%A5%E8%B0%83%E5%8F%82Tricks/%E3%80%90CNN%E8%B0%83%E5%8F%82%E3%80%91%E5%9B%BE%E5%83%8F%E5%88%86%E7%B1%BB%E7%AE%97%E6%B3%95%E4%BC%98%E5%8C%96%E6%8A%80%E5%B7%A7/" xr:uid="{90012C18-2D8D-4870-8974-7EBA0E232D86}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\liyunlong\robust-residual-network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AE2A6-A847-4BD6-9833-590E89A21F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D8090-A962-45D6-9792-06990F375968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{2FAE3A01-0C8F-4B1A-8FBD-EC9BE61984E5}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>常规精度(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,18 +244,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>·</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttentionResNet-50-TradesLoss-Mish-second(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用了SGD优化器，陷入了局部最优，优化的不好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttentionResNet-50-TradesLoss-Mish-third(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没有SE导致性能下降了1%，还挺多的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttentionResNet-50-TradesLoss-Mish-cbam-D(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +285,58 @@
   </si>
   <si>
     <t>AttentionResNet-50-TradesLoss-Mish-SE-D[SE-jump](100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有SE导致性能下降了1%，还挺多的（但是这个SE是加了第二次跳跃连接的！！！！）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-ATLoss-Mish-SE-second(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-SE-cbam-second(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-SE-D-second(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Mish-SE-fourth(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活函数Mish对整个网络的计算复杂度影响太大了，太复杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Swish-SE(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swish函数的简单形式使得整个模型额计算量降低了70%，相对于Mish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Swish(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用了SGD优化器，陷入了局部最优，优化的不好(该实验可以作废了)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Swish-SE-D(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-ATLoss-Swish-SE(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionResNet-50-TradesLoss-Swish-cbam(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +410,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +438,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -439,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,7 +534,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6718BFFF-2EDD-440A-896A-648A14BEC837}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -812,7 +891,7 @@
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="10.08203125" customWidth="1"/>
-    <col min="7" max="7" width="64.08203125" customWidth="1"/>
+    <col min="7" max="7" width="74.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1167,228 +1246,421 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1">
-        <v>80.16</v>
-      </c>
-      <c r="C20" s="1">
-        <v>49.22</v>
-      </c>
-      <c r="D20" s="1">
-        <v>44.41</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1">
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1">
-        <v>49.24</v>
+        <v>48.6</v>
       </c>
       <c r="D21" s="1">
-        <v>39.6</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
+        <v>43.35</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
-        <v>64.69</v>
+        <v>81.06</v>
       </c>
       <c r="C22" s="1">
-        <v>36.729999999999997</v>
-      </c>
-      <c r="F22" s="8">
+        <v>50.32</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45.33</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1">
-        <v>80</v>
-      </c>
-      <c r="C23" s="1">
-        <v>48.94</v>
-      </c>
-      <c r="D23" s="1">
-        <v>44.59</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="C24" s="1">
-        <v>47.98</v>
-      </c>
-      <c r="D24" s="1">
-        <v>42.21</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1">
-        <v>79.55</v>
-      </c>
-      <c r="C25" s="1">
-        <v>48.33</v>
-      </c>
-      <c r="D25" s="1">
-        <v>43.37</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="12">
+        <v>81.13</v>
+      </c>
+      <c r="C23" s="12">
+        <v>50.64</v>
+      </c>
+      <c r="D23" s="12">
+        <v>45.71</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="12">
+        <v>80.16</v>
+      </c>
+      <c r="C24" s="12">
+        <v>49.22</v>
+      </c>
+      <c r="D24" s="12">
+        <v>44.41</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1">
+        <v>84.42</v>
+      </c>
+      <c r="C26" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41.89</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="12">
+        <v>84.02</v>
+      </c>
+      <c r="C27" s="12">
+        <v>54.85</v>
+      </c>
+      <c r="D27" s="12">
+        <v>41.21</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="12">
+        <v>82.5</v>
+      </c>
+      <c r="C28" s="12">
+        <v>49.24</v>
+      </c>
+      <c r="D28" s="12">
+        <v>39.6</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="17">
+        <v>64.69</v>
+      </c>
+      <c r="C30" s="17">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43.53</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1">
+        <v>48.94</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44.59</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B34" s="12">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="C34" s="12">
+        <v>50.11</v>
+      </c>
+      <c r="D34" s="12">
+        <v>43.63</v>
+      </c>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="12">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="C35" s="12">
+        <v>47.98</v>
+      </c>
+      <c r="D35" s="12">
+        <v>42.21</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1">
+        <v>79.55</v>
+      </c>
+      <c r="C36" s="1">
+        <v>48.33</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43.37</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="C37" s="1">
+        <v>48.93</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43.41</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="C39" s="1">
+        <v>49.89</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45.09</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="12">
+        <v>81.47</v>
+      </c>
+      <c r="C40" s="12">
+        <v>50.48</v>
+      </c>
+      <c r="D40" s="16">
+        <v>45.65</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="12">
         <v>80.38</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C41" s="12">
         <v>49.51</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D41" s="12">
         <v>44.91</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12" t="s">
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1">
+        <v>80.61</v>
+      </c>
+      <c r="C42" s="1">
+        <v>49.22</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43.99</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="1">
-        <v>80.61</v>
-      </c>
-      <c r="C27" s="1">
-        <v>49.22</v>
-      </c>
-      <c r="D27" s="1">
-        <v>43.99</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="B43" s="1">
         <v>80.66</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C43" s="1">
         <v>47.75</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D43" s="1">
         <v>41.87</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B48" s="9">
         <v>82.73</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C48" s="9">
         <v>47.92</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D48" s="9">
         <v>38.94</v>
       </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B49" s="9">
         <v>73.680000000000007</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C49" s="9">
         <v>44.05</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D49" s="9">
         <v>39.58</v>
       </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B50" s="9">
         <v>75.2</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C50" s="9">
         <v>44.97</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="D50" s="9"/>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G26" r:id="rId1" display="http://giantpandacv.com/academic/%E7%AE%97%E6%B3%95%E7%A7%91%E6%99%AE/%E6%89%8B%E5%B7%A5%E8%B0%83%E5%8F%82Tricks/%E3%80%90CNN%E8%B0%83%E5%8F%82%E3%80%91%E5%9B%BE%E5%83%8F%E5%88%86%E7%B1%BB%E7%AE%97%E6%B3%95%E4%BC%98%E5%8C%96%E6%8A%80%E5%B7%A7/" xr:uid="{90012C18-2D8D-4870-8974-7EBA0E232D86}"/>
+    <hyperlink ref="G41" r:id="rId1" display="http://giantpandacv.com/academic/%E7%AE%97%E6%B3%95%E7%A7%91%E6%99%AE/%E6%89%8B%E5%B7%A5%E8%B0%83%E5%8F%82Tricks/%E3%80%90CNN%E8%B0%83%E5%8F%82%E3%80%91%E5%9B%BE%E5%83%8F%E5%88%86%E7%B1%BB%E7%AE%97%E6%B3%95%E4%BC%98%E5%8C%96%E6%8A%80%E5%B7%A7/" xr:uid="{90012C18-2D8D-4870-8974-7EBA0E232D86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
